--- a/laberinto.xlsx
+++ b/laberinto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/jorge_gsamartin_alumnos_upm_es/Documents/Jorge/2-trabajosuni/M1/ingenia/Entregas/Concurrencia/Laberinto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgDos\Repositorios\Laberinto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{6CD4C3DF-E60C-4F51-81AC-296C549F3657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2967E5F8-03C3-4CAF-8C25-0A94E69648DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E5F483-A17A-4FEE-BB9B-355EAFEBDB2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52DED5C3-FA09-4FDD-8B9A-8B7492EB2F95}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="104">
   <si>
     <t>Column1.1</t>
   </si>
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,7 +407,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="102">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -709,7 +731,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{4FA8D60A-52D0-496E-AC1D-2828A9E80201}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -834,106 +861,106 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE8FA8F5-42A2-4BE0-AC27-7ED0C934F737}" name="labyrinth" displayName="labyrinth" ref="A1:CV26" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:CV26" xr:uid="{09C22B99-CC5A-49DB-81AD-62DC69DFE147}"/>
   <tableColumns count="100">
-    <tableColumn id="1" xr3:uid="{CF03BC0D-1003-4443-B84C-438847A89E06}" uniqueName="1" name="Column1.1" queryTableFieldId="1" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{9A0C14C2-5FA3-4DC3-B6E3-A06D37199DE4}" uniqueName="2" name="Column1.2" queryTableFieldId="2" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{8761689A-ED9A-41FB-8403-300D909EA704}" uniqueName="3" name="Column1.3" queryTableFieldId="3" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{A007BC64-BEDA-426B-8D60-812806939732}" uniqueName="4" name="Column1.4" queryTableFieldId="4" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{E3B3FF3D-9759-4A6E-ABA2-3BDBE2658ACB}" uniqueName="5" name="Column1.5" queryTableFieldId="5" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{08CE5F4B-B01F-43CF-BB14-1E557DF8362A}" uniqueName="6" name="Column1.6" queryTableFieldId="6" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{08DED56A-DB94-46EB-A91B-FDEE3B1A525A}" uniqueName="7" name="Column1.7" queryTableFieldId="7" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{3A7A2D60-9D5C-4BEC-852C-EE421B99FC9B}" uniqueName="8" name="Column1.8" queryTableFieldId="8" dataDxfId="92"/>
-    <tableColumn id="9" xr3:uid="{245B7F36-72F0-4748-8893-064CDEAAFC0A}" uniqueName="9" name="Column1.9" queryTableFieldId="9" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{658AEA2F-40D2-4451-AD55-A1F1654F13CA}" uniqueName="10" name="Column1.10" queryTableFieldId="10" dataDxfId="90"/>
-    <tableColumn id="11" xr3:uid="{1AEF16EA-1450-4E82-BC08-206D54727928}" uniqueName="11" name="Column1.11" queryTableFieldId="11" dataDxfId="89"/>
-    <tableColumn id="12" xr3:uid="{F2B43140-7C8C-4A1E-B082-8EA27DD436AE}" uniqueName="12" name="Column1.12" queryTableFieldId="12" dataDxfId="88"/>
-    <tableColumn id="13" xr3:uid="{034F0B08-291C-41FD-BA00-9919910DA1F7}" uniqueName="13" name="Column1.13" queryTableFieldId="13" dataDxfId="87"/>
-    <tableColumn id="14" xr3:uid="{2AF22AE4-8A7A-4B85-9AFA-95608DE73274}" uniqueName="14" name="Column1.14" queryTableFieldId="14" dataDxfId="86"/>
-    <tableColumn id="15" xr3:uid="{8352B244-73C4-4E13-A076-A5BD1A8F4047}" uniqueName="15" name="Column1.15" queryTableFieldId="15" dataDxfId="85"/>
-    <tableColumn id="16" xr3:uid="{EB29F15A-F24A-4BBE-A8B6-F93E28ABA56D}" uniqueName="16" name="Column1.16" queryTableFieldId="16" dataDxfId="84"/>
-    <tableColumn id="17" xr3:uid="{F3C0A8A4-D3B8-4DB9-BC73-BBB53F9CFF75}" uniqueName="17" name="Column1.17" queryTableFieldId="17" dataDxfId="83"/>
-    <tableColumn id="18" xr3:uid="{1B3FDA22-E3B7-49BE-A567-822E6A054930}" uniqueName="18" name="Column1.18" queryTableFieldId="18" dataDxfId="82"/>
-    <tableColumn id="19" xr3:uid="{B9FCEFE4-1F2C-4B78-8E26-65B6C6DA25F3}" uniqueName="19" name="Column1.19" queryTableFieldId="19" dataDxfId="81"/>
-    <tableColumn id="20" xr3:uid="{AD442D5B-CD87-447A-84E1-B0C26674AEC4}" uniqueName="20" name="Column1.20" queryTableFieldId="20" dataDxfId="80"/>
-    <tableColumn id="21" xr3:uid="{37231F0F-D50F-4A54-AC8D-3D6F8804DFCB}" uniqueName="21" name="Column1.21" queryTableFieldId="21" dataDxfId="79"/>
-    <tableColumn id="22" xr3:uid="{D9B9FB0B-D67A-4C2B-939B-AEF13801621F}" uniqueName="22" name="Column1.22" queryTableFieldId="22" dataDxfId="78"/>
-    <tableColumn id="23" xr3:uid="{27D5DD7B-46C6-4BE2-812E-C9ED7EB8F4A3}" uniqueName="23" name="Column1.23" queryTableFieldId="23" dataDxfId="77"/>
-    <tableColumn id="24" xr3:uid="{FEDE720B-EABF-4FD4-8956-5334A6C35025}" uniqueName="24" name="Column1.24" queryTableFieldId="24" dataDxfId="76"/>
-    <tableColumn id="25" xr3:uid="{E04486AD-4C1C-4EC9-97FF-1FC49D9C7853}" uniqueName="25" name="Column1.25" queryTableFieldId="25" dataDxfId="75"/>
-    <tableColumn id="26" xr3:uid="{D268D36A-1672-4CE1-953A-03815C9187EA}" uniqueName="26" name="Column1.26" queryTableFieldId="26" dataDxfId="74"/>
-    <tableColumn id="27" xr3:uid="{2E122366-A448-4C29-943F-A3917092299C}" uniqueName="27" name="Column1.27" queryTableFieldId="27" dataDxfId="73"/>
-    <tableColumn id="28" xr3:uid="{0EC3BFEC-9C52-46F6-99AB-5070EE6C1D5E}" uniqueName="28" name="Column1.28" queryTableFieldId="28" dataDxfId="72"/>
-    <tableColumn id="29" xr3:uid="{30531811-BC23-4771-AB09-6BB0D23FE020}" uniqueName="29" name="Column1.29" queryTableFieldId="29" dataDxfId="71"/>
-    <tableColumn id="30" xr3:uid="{8E7F9CBF-DFBF-4BE2-BCEA-874F87D7BBF5}" uniqueName="30" name="Column1.30" queryTableFieldId="30" dataDxfId="70"/>
-    <tableColumn id="31" xr3:uid="{4D281979-75B1-43DB-BFEF-F5972D260979}" uniqueName="31" name="Column1.31" queryTableFieldId="31" dataDxfId="69"/>
-    <tableColumn id="32" xr3:uid="{09145B72-DF2D-4943-AFF0-3610FA50FDFB}" uniqueName="32" name="Column1.32" queryTableFieldId="32" dataDxfId="68"/>
-    <tableColumn id="33" xr3:uid="{6EF46092-15C2-4AAD-843F-6F6EE4AE9417}" uniqueName="33" name="Column1.33" queryTableFieldId="33" dataDxfId="67"/>
-    <tableColumn id="34" xr3:uid="{BF854C90-FF95-4DDF-B2BA-F5233166C097}" uniqueName="34" name="Column1.34" queryTableFieldId="34" dataDxfId="66"/>
-    <tableColumn id="35" xr3:uid="{B9FE7980-4783-44E0-B978-B20EA5E8A309}" uniqueName="35" name="Column1.35" queryTableFieldId="35" dataDxfId="65"/>
-    <tableColumn id="36" xr3:uid="{4EE62E85-19D9-4B43-AD65-D503CF805DDF}" uniqueName="36" name="Column1.36" queryTableFieldId="36" dataDxfId="64"/>
-    <tableColumn id="37" xr3:uid="{E1CBEDDB-393F-4629-8AAE-5666853E33FC}" uniqueName="37" name="Column1.37" queryTableFieldId="37" dataDxfId="63"/>
-    <tableColumn id="38" xr3:uid="{99FBF0EE-221C-46AD-BD9B-23615FAD78CA}" uniqueName="38" name="Column1.38" queryTableFieldId="38" dataDxfId="62"/>
-    <tableColumn id="39" xr3:uid="{EC4D7450-43A0-40CF-8CE1-63652CCEB7C7}" uniqueName="39" name="Column1.39" queryTableFieldId="39" dataDxfId="61"/>
-    <tableColumn id="40" xr3:uid="{7C4418BE-FE3A-40F3-8B42-DB4637E30BFE}" uniqueName="40" name="Column1.40" queryTableFieldId="40" dataDxfId="60"/>
-    <tableColumn id="41" xr3:uid="{C6D75119-AC38-430C-A5FB-1A1F718CCADE}" uniqueName="41" name="Column1.41" queryTableFieldId="41" dataDxfId="59"/>
-    <tableColumn id="42" xr3:uid="{6C6C2A0A-6774-446B-8887-30ED567E65FC}" uniqueName="42" name="Column1.42" queryTableFieldId="42" dataDxfId="58"/>
-    <tableColumn id="43" xr3:uid="{D21A14F9-BAB8-410B-95BC-CE2AE9BB10A5}" uniqueName="43" name="Column1.43" queryTableFieldId="43" dataDxfId="57"/>
-    <tableColumn id="44" xr3:uid="{6DC0CF4E-4BAA-4D46-A363-B29A82FE8619}" uniqueName="44" name="Column1.44" queryTableFieldId="44" dataDxfId="56"/>
-    <tableColumn id="45" xr3:uid="{C49D959D-3722-4F8F-BA94-6423B97FA321}" uniqueName="45" name="Column1.45" queryTableFieldId="45" dataDxfId="55"/>
-    <tableColumn id="46" xr3:uid="{6615CEF3-86E9-4F3A-A59B-B86635078DE9}" uniqueName="46" name="Column1.46" queryTableFieldId="46" dataDxfId="54"/>
-    <tableColumn id="47" xr3:uid="{73E8424D-365D-460B-9FBA-8CDC67CF0771}" uniqueName="47" name="Column1.47" queryTableFieldId="47" dataDxfId="53"/>
-    <tableColumn id="48" xr3:uid="{AD81E99D-8E91-4E22-860A-39B4B700DE61}" uniqueName="48" name="Column1.48" queryTableFieldId="48" dataDxfId="52"/>
-    <tableColumn id="49" xr3:uid="{756E2203-2245-4D03-92A2-5F055E7DEDE1}" uniqueName="49" name="Column1.49" queryTableFieldId="49" dataDxfId="51"/>
-    <tableColumn id="50" xr3:uid="{C317A510-CFBC-4368-A225-1ED3722AF8D4}" uniqueName="50" name="Column1.50" queryTableFieldId="50" dataDxfId="50"/>
-    <tableColumn id="51" xr3:uid="{5BE31647-8839-4E4D-AC2B-D07E5D89418B}" uniqueName="51" name="Column1.51" queryTableFieldId="51" dataDxfId="49"/>
-    <tableColumn id="52" xr3:uid="{0A44DB4D-0EDD-440C-A850-95839838B1FE}" uniqueName="52" name="Column1.52" queryTableFieldId="52" dataDxfId="48"/>
-    <tableColumn id="53" xr3:uid="{FDEE9A73-C17D-45B4-8B1D-3C5CF0BE57D5}" uniqueName="53" name="Column1.53" queryTableFieldId="53" dataDxfId="47"/>
-    <tableColumn id="54" xr3:uid="{C2B01802-8E4F-4C7E-AEAC-EC4ADE67CEF3}" uniqueName="54" name="Column1.54" queryTableFieldId="54" dataDxfId="46"/>
-    <tableColumn id="55" xr3:uid="{D58B73A1-5C48-40C0-BA6F-D09083A2A736}" uniqueName="55" name="Column1.55" queryTableFieldId="55" dataDxfId="45"/>
-    <tableColumn id="56" xr3:uid="{FE252210-683E-4BB4-B23B-82C52863E336}" uniqueName="56" name="Column1.56" queryTableFieldId="56" dataDxfId="44"/>
-    <tableColumn id="57" xr3:uid="{954C0021-5B00-494D-B130-E6F2DBA0D353}" uniqueName="57" name="Column1.57" queryTableFieldId="57" dataDxfId="43"/>
-    <tableColumn id="58" xr3:uid="{7D2B09E7-B650-4041-835C-DB0E1211A6D7}" uniqueName="58" name="Column1.58" queryTableFieldId="58" dataDxfId="42"/>
-    <tableColumn id="59" xr3:uid="{0450A926-51B9-4F27-BADB-F9D1DE7AF0FC}" uniqueName="59" name="Column1.59" queryTableFieldId="59" dataDxfId="41"/>
-    <tableColumn id="60" xr3:uid="{4CBF892E-C8F2-4749-B9BF-18110214E97B}" uniqueName="60" name="Column1.60" queryTableFieldId="60" dataDxfId="40"/>
-    <tableColumn id="61" xr3:uid="{B7203DD5-3D12-455E-9E33-14B70DAFB169}" uniqueName="61" name="Column1.61" queryTableFieldId="61" dataDxfId="39"/>
-    <tableColumn id="62" xr3:uid="{6B0BE547-3C97-4A6A-9B08-E73103B1DD75}" uniqueName="62" name="Column1.62" queryTableFieldId="62" dataDxfId="38"/>
-    <tableColumn id="63" xr3:uid="{C2FAB002-5940-47B7-ABB6-E559D65BE59F}" uniqueName="63" name="Column1.63" queryTableFieldId="63" dataDxfId="37"/>
-    <tableColumn id="64" xr3:uid="{6A58CB4A-B8A3-48F8-89A1-F14E5055CC35}" uniqueName="64" name="Column1.64" queryTableFieldId="64" dataDxfId="36"/>
-    <tableColumn id="65" xr3:uid="{CCBA9A4C-F044-4245-B414-BBADDF4B5E8D}" uniqueName="65" name="Column1.65" queryTableFieldId="65" dataDxfId="35"/>
-    <tableColumn id="66" xr3:uid="{3108AD55-0080-422E-8DDF-7AB83638BB6E}" uniqueName="66" name="Column1.66" queryTableFieldId="66" dataDxfId="34"/>
-    <tableColumn id="67" xr3:uid="{AA32FCDD-DB58-482B-A7FA-6BF32BFB107B}" uniqueName="67" name="Column1.67" queryTableFieldId="67" dataDxfId="33"/>
-    <tableColumn id="68" xr3:uid="{6F5F73F3-0AD5-4145-A8F3-D5C188C900E2}" uniqueName="68" name="Column1.68" queryTableFieldId="68" dataDxfId="32"/>
-    <tableColumn id="69" xr3:uid="{CEB45046-F336-408F-8EDF-591D9D1E5BE0}" uniqueName="69" name="Column1.69" queryTableFieldId="69" dataDxfId="31"/>
-    <tableColumn id="70" xr3:uid="{E43DEC54-F7F8-410E-957F-F915A7EA1AF6}" uniqueName="70" name="Column1.70" queryTableFieldId="70" dataDxfId="30"/>
-    <tableColumn id="71" xr3:uid="{F68DD512-1E39-4DEE-9CCE-15510FF58DB4}" uniqueName="71" name="Column1.71" queryTableFieldId="71" dataDxfId="29"/>
-    <tableColumn id="72" xr3:uid="{4FA11485-8670-4010-B086-A557F0677286}" uniqueName="72" name="Column1.72" queryTableFieldId="72" dataDxfId="28"/>
-    <tableColumn id="73" xr3:uid="{F499AAB5-3D95-4FB3-A5C3-98670FAC1C9D}" uniqueName="73" name="Column1.73" queryTableFieldId="73" dataDxfId="27"/>
-    <tableColumn id="74" xr3:uid="{9DE6F2CC-7192-420B-8DFC-8935DB8BE7CD}" uniqueName="74" name="Column1.74" queryTableFieldId="74" dataDxfId="26"/>
-    <tableColumn id="75" xr3:uid="{6E40711C-3C54-4B5C-A3BB-23847C6D1BD7}" uniqueName="75" name="Column1.75" queryTableFieldId="75" dataDxfId="25"/>
-    <tableColumn id="76" xr3:uid="{81A2BF8F-9945-45D3-8130-5AA001775BE6}" uniqueName="76" name="Column1.76" queryTableFieldId="76" dataDxfId="24"/>
-    <tableColumn id="77" xr3:uid="{8FC099F7-5D6B-4152-BAF4-4EE90070C796}" uniqueName="77" name="Column1.77" queryTableFieldId="77" dataDxfId="23"/>
-    <tableColumn id="78" xr3:uid="{EAFBBDF6-9578-4034-A38B-519037B9ECE4}" uniqueName="78" name="Column1.78" queryTableFieldId="78" dataDxfId="22"/>
-    <tableColumn id="79" xr3:uid="{D8C01FA7-1A71-433C-9CFF-225B77964198}" uniqueName="79" name="Column1.79" queryTableFieldId="79" dataDxfId="21"/>
-    <tableColumn id="80" xr3:uid="{36116F74-A0BB-441A-9366-A7FEB5FE8418}" uniqueName="80" name="Column1.80" queryTableFieldId="80" dataDxfId="20"/>
-    <tableColumn id="81" xr3:uid="{363EA599-277B-467E-A247-4ED6F3E5574F}" uniqueName="81" name="Column1.81" queryTableFieldId="81" dataDxfId="19"/>
-    <tableColumn id="82" xr3:uid="{98ACF9B1-0A2C-42C5-83B5-976E88B35A8B}" uniqueName="82" name="Column1.82" queryTableFieldId="82" dataDxfId="18"/>
-    <tableColumn id="83" xr3:uid="{8B699306-68BF-4918-AF8D-568224883061}" uniqueName="83" name="Column1.83" queryTableFieldId="83" dataDxfId="17"/>
-    <tableColumn id="84" xr3:uid="{E930666D-B9F4-4E44-82CA-FCEF83BA3E25}" uniqueName="84" name="Column1.84" queryTableFieldId="84" dataDxfId="16"/>
-    <tableColumn id="85" xr3:uid="{7EE37E20-1638-4CE3-84CD-FA4562D6915F}" uniqueName="85" name="Column1.85" queryTableFieldId="85" dataDxfId="15"/>
-    <tableColumn id="86" xr3:uid="{205BA603-C52F-43FC-976B-EFA30453243E}" uniqueName="86" name="Column1.86" queryTableFieldId="86" dataDxfId="14"/>
-    <tableColumn id="87" xr3:uid="{C64F4278-C8E2-4C6C-8B7C-F7E33FA35345}" uniqueName="87" name="Column1.87" queryTableFieldId="87" dataDxfId="13"/>
-    <tableColumn id="88" xr3:uid="{4BE16836-9721-4647-B22D-E7B8ED3FC497}" uniqueName="88" name="Column1.88" queryTableFieldId="88" dataDxfId="12"/>
-    <tableColumn id="89" xr3:uid="{4D9D3603-684D-45EF-B1D2-EE364A492F64}" uniqueName="89" name="Column1.89" queryTableFieldId="89" dataDxfId="11"/>
-    <tableColumn id="90" xr3:uid="{0E2CA2D0-310B-4D9E-AA17-F4F29AC30141}" uniqueName="90" name="Column1.90" queryTableFieldId="90" dataDxfId="10"/>
-    <tableColumn id="91" xr3:uid="{D9310C3B-E5A4-4CD3-B7FB-68A0F8D92751}" uniqueName="91" name="Column1.91" queryTableFieldId="91" dataDxfId="9"/>
-    <tableColumn id="92" xr3:uid="{90593026-CF0F-46C8-9AF8-606973AE4E31}" uniqueName="92" name="Column1.92" queryTableFieldId="92" dataDxfId="8"/>
-    <tableColumn id="93" xr3:uid="{13536593-1EE9-436A-9495-438753523D4F}" uniqueName="93" name="Column1.93" queryTableFieldId="93" dataDxfId="7"/>
-    <tableColumn id="94" xr3:uid="{F148A8C1-E09F-460F-BBB8-CD84243A2871}" uniqueName="94" name="Column1.94" queryTableFieldId="94" dataDxfId="6"/>
-    <tableColumn id="95" xr3:uid="{22C0CA7E-F284-4A67-9678-2822421282BC}" uniqueName="95" name="Column1.95" queryTableFieldId="95" dataDxfId="5"/>
-    <tableColumn id="96" xr3:uid="{01C49FC9-6461-4254-96A2-F0638A6A9EF2}" uniqueName="96" name="Column1.96" queryTableFieldId="96" dataDxfId="4"/>
-    <tableColumn id="97" xr3:uid="{BCFFA473-F525-4604-8014-6016ACEB956E}" uniqueName="97" name="Column1.97" queryTableFieldId="97" dataDxfId="3"/>
-    <tableColumn id="98" xr3:uid="{210D0245-9763-419F-93F3-32846F75EB83}" uniqueName="98" name="Column1.98" queryTableFieldId="98" dataDxfId="2"/>
-    <tableColumn id="99" xr3:uid="{29E5A8B1-A210-4CA2-81CF-7193E2E09A0A}" uniqueName="99" name="Column1.99" queryTableFieldId="99" dataDxfId="1"/>
-    <tableColumn id="100" xr3:uid="{7138D6B5-9895-4D17-A527-D96F5E0AE75D}" uniqueName="100" name="Column1.100" queryTableFieldId="100" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CF03BC0D-1003-4443-B84C-438847A89E06}" uniqueName="1" name="Column1.1" queryTableFieldId="1" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{9A0C14C2-5FA3-4DC3-B6E3-A06D37199DE4}" uniqueName="2" name="Column1.2" queryTableFieldId="2" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{8761689A-ED9A-41FB-8403-300D909EA704}" uniqueName="3" name="Column1.3" queryTableFieldId="3" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{A007BC64-BEDA-426B-8D60-812806939732}" uniqueName="4" name="Column1.4" queryTableFieldId="4" dataDxfId="98"/>
+    <tableColumn id="5" xr3:uid="{E3B3FF3D-9759-4A6E-ABA2-3BDBE2658ACB}" uniqueName="5" name="Column1.5" queryTableFieldId="5" dataDxfId="97"/>
+    <tableColumn id="6" xr3:uid="{08CE5F4B-B01F-43CF-BB14-1E557DF8362A}" uniqueName="6" name="Column1.6" queryTableFieldId="6" dataDxfId="96"/>
+    <tableColumn id="7" xr3:uid="{08DED56A-DB94-46EB-A91B-FDEE3B1A525A}" uniqueName="7" name="Column1.7" queryTableFieldId="7" dataDxfId="95"/>
+    <tableColumn id="8" xr3:uid="{3A7A2D60-9D5C-4BEC-852C-EE421B99FC9B}" uniqueName="8" name="Column1.8" queryTableFieldId="8" dataDxfId="94"/>
+    <tableColumn id="9" xr3:uid="{245B7F36-72F0-4748-8893-064CDEAAFC0A}" uniqueName="9" name="Column1.9" queryTableFieldId="9" dataDxfId="93"/>
+    <tableColumn id="10" xr3:uid="{658AEA2F-40D2-4451-AD55-A1F1654F13CA}" uniqueName="10" name="Column1.10" queryTableFieldId="10" dataDxfId="92"/>
+    <tableColumn id="11" xr3:uid="{1AEF16EA-1450-4E82-BC08-206D54727928}" uniqueName="11" name="Column1.11" queryTableFieldId="11" dataDxfId="91"/>
+    <tableColumn id="12" xr3:uid="{F2B43140-7C8C-4A1E-B082-8EA27DD436AE}" uniqueName="12" name="Column1.12" queryTableFieldId="12" dataDxfId="90"/>
+    <tableColumn id="13" xr3:uid="{034F0B08-291C-41FD-BA00-9919910DA1F7}" uniqueName="13" name="Column1.13" queryTableFieldId="13" dataDxfId="89"/>
+    <tableColumn id="14" xr3:uid="{2AF22AE4-8A7A-4B85-9AFA-95608DE73274}" uniqueName="14" name="Column1.14" queryTableFieldId="14" dataDxfId="88"/>
+    <tableColumn id="15" xr3:uid="{8352B244-73C4-4E13-A076-A5BD1A8F4047}" uniqueName="15" name="Column1.15" queryTableFieldId="15" dataDxfId="87"/>
+    <tableColumn id="16" xr3:uid="{EB29F15A-F24A-4BBE-A8B6-F93E28ABA56D}" uniqueName="16" name="Column1.16" queryTableFieldId="16" dataDxfId="86"/>
+    <tableColumn id="17" xr3:uid="{F3C0A8A4-D3B8-4DB9-BC73-BBB53F9CFF75}" uniqueName="17" name="Column1.17" queryTableFieldId="17" dataDxfId="85"/>
+    <tableColumn id="18" xr3:uid="{1B3FDA22-E3B7-49BE-A567-822E6A054930}" uniqueName="18" name="Column1.18" queryTableFieldId="18" dataDxfId="84"/>
+    <tableColumn id="19" xr3:uid="{B9FCEFE4-1F2C-4B78-8E26-65B6C6DA25F3}" uniqueName="19" name="Column1.19" queryTableFieldId="19" dataDxfId="83"/>
+    <tableColumn id="20" xr3:uid="{AD442D5B-CD87-447A-84E1-B0C26674AEC4}" uniqueName="20" name="Column1.20" queryTableFieldId="20" dataDxfId="82"/>
+    <tableColumn id="21" xr3:uid="{37231F0F-D50F-4A54-AC8D-3D6F8804DFCB}" uniqueName="21" name="Column1.21" queryTableFieldId="21" dataDxfId="81"/>
+    <tableColumn id="22" xr3:uid="{D9B9FB0B-D67A-4C2B-939B-AEF13801621F}" uniqueName="22" name="Column1.22" queryTableFieldId="22" dataDxfId="80"/>
+    <tableColumn id="23" xr3:uid="{27D5DD7B-46C6-4BE2-812E-C9ED7EB8F4A3}" uniqueName="23" name="Column1.23" queryTableFieldId="23" dataDxfId="79"/>
+    <tableColumn id="24" xr3:uid="{FEDE720B-EABF-4FD4-8956-5334A6C35025}" uniqueName="24" name="Column1.24" queryTableFieldId="24" dataDxfId="78"/>
+    <tableColumn id="25" xr3:uid="{E04486AD-4C1C-4EC9-97FF-1FC49D9C7853}" uniqueName="25" name="Column1.25" queryTableFieldId="25" dataDxfId="77"/>
+    <tableColumn id="26" xr3:uid="{D268D36A-1672-4CE1-953A-03815C9187EA}" uniqueName="26" name="Column1.26" queryTableFieldId="26" dataDxfId="76"/>
+    <tableColumn id="27" xr3:uid="{2E122366-A448-4C29-943F-A3917092299C}" uniqueName="27" name="Column1.27" queryTableFieldId="27" dataDxfId="75"/>
+    <tableColumn id="28" xr3:uid="{0EC3BFEC-9C52-46F6-99AB-5070EE6C1D5E}" uniqueName="28" name="Column1.28" queryTableFieldId="28" dataDxfId="74"/>
+    <tableColumn id="29" xr3:uid="{30531811-BC23-4771-AB09-6BB0D23FE020}" uniqueName="29" name="Column1.29" queryTableFieldId="29" dataDxfId="73"/>
+    <tableColumn id="30" xr3:uid="{8E7F9CBF-DFBF-4BE2-BCEA-874F87D7BBF5}" uniqueName="30" name="Column1.30" queryTableFieldId="30" dataDxfId="72"/>
+    <tableColumn id="31" xr3:uid="{4D281979-75B1-43DB-BFEF-F5972D260979}" uniqueName="31" name="Column1.31" queryTableFieldId="31" dataDxfId="71"/>
+    <tableColumn id="32" xr3:uid="{09145B72-DF2D-4943-AFF0-3610FA50FDFB}" uniqueName="32" name="Column1.32" queryTableFieldId="32" dataDxfId="70"/>
+    <tableColumn id="33" xr3:uid="{6EF46092-15C2-4AAD-843F-6F6EE4AE9417}" uniqueName="33" name="Column1.33" queryTableFieldId="33" dataDxfId="69"/>
+    <tableColumn id="34" xr3:uid="{BF854C90-FF95-4DDF-B2BA-F5233166C097}" uniqueName="34" name="Column1.34" queryTableFieldId="34" dataDxfId="68"/>
+    <tableColumn id="35" xr3:uid="{B9FE7980-4783-44E0-B978-B20EA5E8A309}" uniqueName="35" name="Column1.35" queryTableFieldId="35" dataDxfId="67"/>
+    <tableColumn id="36" xr3:uid="{4EE62E85-19D9-4B43-AD65-D503CF805DDF}" uniqueName="36" name="Column1.36" queryTableFieldId="36" dataDxfId="66"/>
+    <tableColumn id="37" xr3:uid="{E1CBEDDB-393F-4629-8AAE-5666853E33FC}" uniqueName="37" name="Column1.37" queryTableFieldId="37" dataDxfId="65"/>
+    <tableColumn id="38" xr3:uid="{99FBF0EE-221C-46AD-BD9B-23615FAD78CA}" uniqueName="38" name="Column1.38" queryTableFieldId="38" dataDxfId="64"/>
+    <tableColumn id="39" xr3:uid="{EC4D7450-43A0-40CF-8CE1-63652CCEB7C7}" uniqueName="39" name="Column1.39" queryTableFieldId="39" dataDxfId="63"/>
+    <tableColumn id="40" xr3:uid="{7C4418BE-FE3A-40F3-8B42-DB4637E30BFE}" uniqueName="40" name="Column1.40" queryTableFieldId="40" dataDxfId="62"/>
+    <tableColumn id="41" xr3:uid="{C6D75119-AC38-430C-A5FB-1A1F718CCADE}" uniqueName="41" name="Column1.41" queryTableFieldId="41" dataDxfId="61"/>
+    <tableColumn id="42" xr3:uid="{6C6C2A0A-6774-446B-8887-30ED567E65FC}" uniqueName="42" name="Column1.42" queryTableFieldId="42" dataDxfId="60"/>
+    <tableColumn id="43" xr3:uid="{D21A14F9-BAB8-410B-95BC-CE2AE9BB10A5}" uniqueName="43" name="Column1.43" queryTableFieldId="43" dataDxfId="59"/>
+    <tableColumn id="44" xr3:uid="{6DC0CF4E-4BAA-4D46-A363-B29A82FE8619}" uniqueName="44" name="Column1.44" queryTableFieldId="44" dataDxfId="58"/>
+    <tableColumn id="45" xr3:uid="{C49D959D-3722-4F8F-BA94-6423B97FA321}" uniqueName="45" name="Column1.45" queryTableFieldId="45" dataDxfId="57"/>
+    <tableColumn id="46" xr3:uid="{6615CEF3-86E9-4F3A-A59B-B86635078DE9}" uniqueName="46" name="Column1.46" queryTableFieldId="46" dataDxfId="56"/>
+    <tableColumn id="47" xr3:uid="{73E8424D-365D-460B-9FBA-8CDC67CF0771}" uniqueName="47" name="Column1.47" queryTableFieldId="47" dataDxfId="55"/>
+    <tableColumn id="48" xr3:uid="{AD81E99D-8E91-4E22-860A-39B4B700DE61}" uniqueName="48" name="Column1.48" queryTableFieldId="48" dataDxfId="54"/>
+    <tableColumn id="49" xr3:uid="{756E2203-2245-4D03-92A2-5F055E7DEDE1}" uniqueName="49" name="Column1.49" queryTableFieldId="49" dataDxfId="53"/>
+    <tableColumn id="50" xr3:uid="{C317A510-CFBC-4368-A225-1ED3722AF8D4}" uniqueName="50" name="Column1.50" queryTableFieldId="50" dataDxfId="52"/>
+    <tableColumn id="51" xr3:uid="{5BE31647-8839-4E4D-AC2B-D07E5D89418B}" uniqueName="51" name="Column1.51" queryTableFieldId="51" dataDxfId="51"/>
+    <tableColumn id="52" xr3:uid="{0A44DB4D-0EDD-440C-A850-95839838B1FE}" uniqueName="52" name="Column1.52" queryTableFieldId="52" dataDxfId="50"/>
+    <tableColumn id="53" xr3:uid="{FDEE9A73-C17D-45B4-8B1D-3C5CF0BE57D5}" uniqueName="53" name="Column1.53" queryTableFieldId="53" dataDxfId="49"/>
+    <tableColumn id="54" xr3:uid="{C2B01802-8E4F-4C7E-AEAC-EC4ADE67CEF3}" uniqueName="54" name="Column1.54" queryTableFieldId="54" dataDxfId="48"/>
+    <tableColumn id="55" xr3:uid="{D58B73A1-5C48-40C0-BA6F-D09083A2A736}" uniqueName="55" name="Column1.55" queryTableFieldId="55" dataDxfId="47"/>
+    <tableColumn id="56" xr3:uid="{FE252210-683E-4BB4-B23B-82C52863E336}" uniqueName="56" name="Column1.56" queryTableFieldId="56" dataDxfId="46"/>
+    <tableColumn id="57" xr3:uid="{954C0021-5B00-494D-B130-E6F2DBA0D353}" uniqueName="57" name="Column1.57" queryTableFieldId="57" dataDxfId="45"/>
+    <tableColumn id="58" xr3:uid="{7D2B09E7-B650-4041-835C-DB0E1211A6D7}" uniqueName="58" name="Column1.58" queryTableFieldId="58" dataDxfId="44"/>
+    <tableColumn id="59" xr3:uid="{0450A926-51B9-4F27-BADB-F9D1DE7AF0FC}" uniqueName="59" name="Column1.59" queryTableFieldId="59" dataDxfId="43"/>
+    <tableColumn id="60" xr3:uid="{4CBF892E-C8F2-4749-B9BF-18110214E97B}" uniqueName="60" name="Column1.60" queryTableFieldId="60" dataDxfId="42"/>
+    <tableColumn id="61" xr3:uid="{B7203DD5-3D12-455E-9E33-14B70DAFB169}" uniqueName="61" name="Column1.61" queryTableFieldId="61" dataDxfId="41"/>
+    <tableColumn id="62" xr3:uid="{6B0BE547-3C97-4A6A-9B08-E73103B1DD75}" uniqueName="62" name="Column1.62" queryTableFieldId="62" dataDxfId="40"/>
+    <tableColumn id="63" xr3:uid="{C2FAB002-5940-47B7-ABB6-E559D65BE59F}" uniqueName="63" name="Column1.63" queryTableFieldId="63" dataDxfId="39"/>
+    <tableColumn id="64" xr3:uid="{6A58CB4A-B8A3-48F8-89A1-F14E5055CC35}" uniqueName="64" name="Column1.64" queryTableFieldId="64" dataDxfId="38"/>
+    <tableColumn id="65" xr3:uid="{CCBA9A4C-F044-4245-B414-BBADDF4B5E8D}" uniqueName="65" name="Column1.65" queryTableFieldId="65" dataDxfId="37"/>
+    <tableColumn id="66" xr3:uid="{3108AD55-0080-422E-8DDF-7AB83638BB6E}" uniqueName="66" name="Column1.66" queryTableFieldId="66" dataDxfId="36"/>
+    <tableColumn id="67" xr3:uid="{AA32FCDD-DB58-482B-A7FA-6BF32BFB107B}" uniqueName="67" name="Column1.67" queryTableFieldId="67" dataDxfId="35"/>
+    <tableColumn id="68" xr3:uid="{6F5F73F3-0AD5-4145-A8F3-D5C188C900E2}" uniqueName="68" name="Column1.68" queryTableFieldId="68" dataDxfId="34"/>
+    <tableColumn id="69" xr3:uid="{CEB45046-F336-408F-8EDF-591D9D1E5BE0}" uniqueName="69" name="Column1.69" queryTableFieldId="69" dataDxfId="33"/>
+    <tableColumn id="70" xr3:uid="{E43DEC54-F7F8-410E-957F-F915A7EA1AF6}" uniqueName="70" name="Column1.70" queryTableFieldId="70" dataDxfId="32"/>
+    <tableColumn id="71" xr3:uid="{F68DD512-1E39-4DEE-9CCE-15510FF58DB4}" uniqueName="71" name="Column1.71" queryTableFieldId="71" dataDxfId="31"/>
+    <tableColumn id="72" xr3:uid="{4FA11485-8670-4010-B086-A557F0677286}" uniqueName="72" name="Column1.72" queryTableFieldId="72" dataDxfId="30"/>
+    <tableColumn id="73" xr3:uid="{F499AAB5-3D95-4FB3-A5C3-98670FAC1C9D}" uniqueName="73" name="Column1.73" queryTableFieldId="73" dataDxfId="29"/>
+    <tableColumn id="74" xr3:uid="{9DE6F2CC-7192-420B-8DFC-8935DB8BE7CD}" uniqueName="74" name="Column1.74" queryTableFieldId="74" dataDxfId="28"/>
+    <tableColumn id="75" xr3:uid="{6E40711C-3C54-4B5C-A3BB-23847C6D1BD7}" uniqueName="75" name="Column1.75" queryTableFieldId="75" dataDxfId="27"/>
+    <tableColumn id="76" xr3:uid="{81A2BF8F-9945-45D3-8130-5AA001775BE6}" uniqueName="76" name="Column1.76" queryTableFieldId="76" dataDxfId="26"/>
+    <tableColumn id="77" xr3:uid="{8FC099F7-5D6B-4152-BAF4-4EE90070C796}" uniqueName="77" name="Column1.77" queryTableFieldId="77" dataDxfId="25"/>
+    <tableColumn id="78" xr3:uid="{EAFBBDF6-9578-4034-A38B-519037B9ECE4}" uniqueName="78" name="Column1.78" queryTableFieldId="78" dataDxfId="24"/>
+    <tableColumn id="79" xr3:uid="{D8C01FA7-1A71-433C-9CFF-225B77964198}" uniqueName="79" name="Column1.79" queryTableFieldId="79" dataDxfId="23"/>
+    <tableColumn id="80" xr3:uid="{36116F74-A0BB-441A-9366-A7FEB5FE8418}" uniqueName="80" name="Column1.80" queryTableFieldId="80" dataDxfId="22"/>
+    <tableColumn id="81" xr3:uid="{363EA599-277B-467E-A247-4ED6F3E5574F}" uniqueName="81" name="Column1.81" queryTableFieldId="81" dataDxfId="21"/>
+    <tableColumn id="82" xr3:uid="{98ACF9B1-0A2C-42C5-83B5-976E88B35A8B}" uniqueName="82" name="Column1.82" queryTableFieldId="82" dataDxfId="20"/>
+    <tableColumn id="83" xr3:uid="{8B699306-68BF-4918-AF8D-568224883061}" uniqueName="83" name="Column1.83" queryTableFieldId="83" dataDxfId="19"/>
+    <tableColumn id="84" xr3:uid="{E930666D-B9F4-4E44-82CA-FCEF83BA3E25}" uniqueName="84" name="Column1.84" queryTableFieldId="84" dataDxfId="18"/>
+    <tableColumn id="85" xr3:uid="{7EE37E20-1638-4CE3-84CD-FA4562D6915F}" uniqueName="85" name="Column1.85" queryTableFieldId="85" dataDxfId="17"/>
+    <tableColumn id="86" xr3:uid="{205BA603-C52F-43FC-976B-EFA30453243E}" uniqueName="86" name="Column1.86" queryTableFieldId="86" dataDxfId="16"/>
+    <tableColumn id="87" xr3:uid="{C64F4278-C8E2-4C6C-8B7C-F7E33FA35345}" uniqueName="87" name="Column1.87" queryTableFieldId="87" dataDxfId="15"/>
+    <tableColumn id="88" xr3:uid="{4BE16836-9721-4647-B22D-E7B8ED3FC497}" uniqueName="88" name="Column1.88" queryTableFieldId="88" dataDxfId="14"/>
+    <tableColumn id="89" xr3:uid="{4D9D3603-684D-45EF-B1D2-EE364A492F64}" uniqueName="89" name="Column1.89" queryTableFieldId="89" dataDxfId="13"/>
+    <tableColumn id="90" xr3:uid="{0E2CA2D0-310B-4D9E-AA17-F4F29AC30141}" uniqueName="90" name="Column1.90" queryTableFieldId="90" dataDxfId="12"/>
+    <tableColumn id="91" xr3:uid="{D9310C3B-E5A4-4CD3-B7FB-68A0F8D92751}" uniqueName="91" name="Column1.91" queryTableFieldId="91" dataDxfId="11"/>
+    <tableColumn id="92" xr3:uid="{90593026-CF0F-46C8-9AF8-606973AE4E31}" uniqueName="92" name="Column1.92" queryTableFieldId="92" dataDxfId="10"/>
+    <tableColumn id="93" xr3:uid="{13536593-1EE9-436A-9495-438753523D4F}" uniqueName="93" name="Column1.93" queryTableFieldId="93" dataDxfId="9"/>
+    <tableColumn id="94" xr3:uid="{F148A8C1-E09F-460F-BBB8-CD84243A2871}" uniqueName="94" name="Column1.94" queryTableFieldId="94" dataDxfId="8"/>
+    <tableColumn id="95" xr3:uid="{22C0CA7E-F284-4A67-9678-2822421282BC}" uniqueName="95" name="Column1.95" queryTableFieldId="95" dataDxfId="7"/>
+    <tableColumn id="96" xr3:uid="{01C49FC9-6461-4254-96A2-F0638A6A9EF2}" uniqueName="96" name="Column1.96" queryTableFieldId="96" dataDxfId="6"/>
+    <tableColumn id="97" xr3:uid="{BCFFA473-F525-4604-8014-6016ACEB956E}" uniqueName="97" name="Column1.97" queryTableFieldId="97" dataDxfId="5"/>
+    <tableColumn id="98" xr3:uid="{210D0245-9763-419F-93F3-32846F75EB83}" uniqueName="98" name="Column1.98" queryTableFieldId="98" dataDxfId="4"/>
+    <tableColumn id="99" xr3:uid="{29E5A8B1-A210-4CA2-81CF-7193E2E09A0A}" uniqueName="99" name="Column1.99" queryTableFieldId="99" dataDxfId="3"/>
+    <tableColumn id="100" xr3:uid="{7138D6B5-9895-4D17-A527-D96F5E0AE75D}" uniqueName="100" name="Column1.100" queryTableFieldId="100" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1239,7 +1266,7 @@
   <dimension ref="A1:CV26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AV33" sqref="AV33"/>
+      <selection activeCell="BN8" sqref="BN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,83 +1966,83 @@
       <c r="AD3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>101</v>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>1</v>
       </c>
       <c r="BE3" s="1" t="s">
         <v>100</v>
@@ -2241,8 +2268,8 @@
       <c r="AD4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>101</v>
+      <c r="AE4" s="2">
+        <v>1</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>100</v>
@@ -2316,8 +2343,8 @@
       <c r="BC4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD4" s="2" t="s">
-        <v>101</v>
+      <c r="BD4" s="2">
+        <v>1</v>
       </c>
       <c r="BE4" s="1" t="s">
         <v>100</v>
@@ -2543,8 +2570,8 @@
       <c r="AD5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AE5" s="2" t="s">
-        <v>101</v>
+      <c r="AE5" s="2">
+        <v>1</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>100</v>
@@ -2618,8 +2645,8 @@
       <c r="BC5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD5" s="2" t="s">
-        <v>101</v>
+      <c r="BD5" s="2">
+        <v>1</v>
       </c>
       <c r="BE5" s="1" t="s">
         <v>100</v>
@@ -2845,8 +2872,8 @@
       <c r="AD6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AE6" s="2" t="s">
-        <v>101</v>
+      <c r="AE6" s="2">
+        <v>1</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>100</v>
@@ -2920,8 +2947,8 @@
       <c r="BC6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD6" s="2" t="s">
-        <v>101</v>
+      <c r="BD6" s="2">
+        <v>1</v>
       </c>
       <c r="BE6" s="1" t="s">
         <v>100</v>
@@ -3105,50 +3132,50 @@
       <c r="P7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>101</v>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>100</v>
@@ -3222,8 +3249,8 @@
       <c r="BC7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD7" s="2" t="s">
-        <v>101</v>
+      <c r="BD7" s="2">
+        <v>1</v>
       </c>
       <c r="BE7" s="1" t="s">
         <v>100</v>
@@ -3297,62 +3324,62 @@
       <c r="CB7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CC7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CD7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CE7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CF7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CG7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CH7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CI7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CJ7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CK7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CL7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CM7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CN7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CO7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CP7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CQ7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CR7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CS7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CT7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CU7" s="2" t="s">
-        <v>101</v>
+      <c r="CC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CJ7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CK7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CP7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CQ7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CR7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CS7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="2">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="2">
+        <v>1</v>
       </c>
       <c r="CV7" s="2" t="s">
         <v>102</v>
@@ -3407,8 +3434,8 @@
       <c r="P8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>101</v>
+      <c r="Q8" s="2">
+        <v>1</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>100</v>
@@ -3524,8 +3551,8 @@
       <c r="BC8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD8" s="2" t="s">
-        <v>101</v>
+      <c r="BD8" s="2">
+        <v>1</v>
       </c>
       <c r="BE8" s="1" t="s">
         <v>100</v>
@@ -3599,8 +3626,8 @@
       <c r="CB8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CC8" s="2" t="s">
-        <v>101</v>
+      <c r="CC8" s="2">
+        <v>1</v>
       </c>
       <c r="CD8" s="1" t="s">
         <v>100</v>
@@ -3709,8 +3736,8 @@
       <c r="P9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>101</v>
+      <c r="Q9" s="2">
+        <v>1</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>100</v>
@@ -3826,8 +3853,8 @@
       <c r="BC9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD9" s="2" t="s">
-        <v>101</v>
+      <c r="BD9" s="2">
+        <v>1</v>
       </c>
       <c r="BE9" s="1" t="s">
         <v>100</v>
@@ -3901,8 +3928,8 @@
       <c r="CB9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CC9" s="2" t="s">
-        <v>101</v>
+      <c r="CC9" s="2">
+        <v>1</v>
       </c>
       <c r="CD9" s="1" t="s">
         <v>100</v>
@@ -4011,8 +4038,8 @@
       <c r="P10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>101</v>
+      <c r="Q10" s="2">
+        <v>1</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>100</v>
@@ -4128,8 +4155,8 @@
       <c r="BC10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD10" s="2" t="s">
-        <v>101</v>
+      <c r="BD10" s="2">
+        <v>1</v>
       </c>
       <c r="BE10" s="1" t="s">
         <v>100</v>
@@ -4203,8 +4230,8 @@
       <c r="CB10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CC10" s="2" t="s">
-        <v>101</v>
+      <c r="CC10" s="2">
+        <v>1</v>
       </c>
       <c r="CD10" s="1" t="s">
         <v>100</v>
@@ -4313,8 +4340,8 @@
       <c r="P11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>101</v>
+      <c r="Q11" s="2">
+        <v>1</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>100</v>
@@ -4430,8 +4457,8 @@
       <c r="BC11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD11" s="2" t="s">
-        <v>101</v>
+      <c r="BD11" s="2">
+        <v>1</v>
       </c>
       <c r="BE11" s="1" t="s">
         <v>100</v>
@@ -4505,8 +4532,8 @@
       <c r="CB11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CC11" s="2" t="s">
-        <v>101</v>
+      <c r="CC11" s="2">
+        <v>1</v>
       </c>
       <c r="CD11" s="1" t="s">
         <v>100</v>
@@ -4615,8 +4642,8 @@
       <c r="P12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>101</v>
+      <c r="Q12" s="2">
+        <v>1</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>100</v>
@@ -4732,8 +4759,8 @@
       <c r="BC12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD12" s="2" t="s">
-        <v>101</v>
+      <c r="BD12" s="2">
+        <v>1</v>
       </c>
       <c r="BE12" s="1" t="s">
         <v>100</v>
@@ -4807,8 +4834,8 @@
       <c r="CB12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CC12" s="2" t="s">
-        <v>101</v>
+      <c r="CC12" s="2">
+        <v>1</v>
       </c>
       <c r="CD12" s="1" t="s">
         <v>100</v>
@@ -4917,8 +4944,8 @@
       <c r="P13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>101</v>
+      <c r="Q13" s="2">
+        <v>1</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>100</v>
@@ -5034,8 +5061,8 @@
       <c r="BC13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD13" s="2" t="s">
-        <v>101</v>
+      <c r="BD13" s="2">
+        <v>1</v>
       </c>
       <c r="BE13" s="1" t="s">
         <v>100</v>
@@ -5109,8 +5136,8 @@
       <c r="CB13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CC13" s="2" t="s">
-        <v>101</v>
+      <c r="CC13" s="2">
+        <v>1</v>
       </c>
       <c r="CD13" s="1" t="s">
         <v>100</v>
@@ -5180,47 +5207,47 @@
       <c r="C14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>101</v>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>100</v>
@@ -5336,8 +5363,8 @@
       <c r="BC14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD14" s="2" t="s">
-        <v>101</v>
+      <c r="BD14" s="2">
+        <v>1</v>
       </c>
       <c r="BE14" s="1" t="s">
         <v>100</v>
@@ -5411,8 +5438,8 @@
       <c r="CB14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CC14" s="2" t="s">
-        <v>101</v>
+      <c r="CC14" s="2">
+        <v>1</v>
       </c>
       <c r="CD14" s="1" t="s">
         <v>100</v>
@@ -5482,8 +5509,8 @@
       <c r="C15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>101</v>
+      <c r="D15" s="2">
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>100</v>
@@ -5638,8 +5665,8 @@
       <c r="BC15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BD15" s="2" t="s">
-        <v>101</v>
+      <c r="BD15" s="2">
+        <v>1</v>
       </c>
       <c r="BE15" s="1" t="s">
         <v>100</v>
@@ -5713,8 +5740,8 @@
       <c r="CB15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CC15" s="2" t="s">
-        <v>101</v>
+      <c r="CC15" s="2">
+        <v>1</v>
       </c>
       <c r="CD15" s="1" t="s">
         <v>100</v>
@@ -5784,8 +5811,8 @@
       <c r="C16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>101</v>
+      <c r="D16" s="2">
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>100</v>
@@ -5940,83 +5967,83 @@
       <c r="BC16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BD16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BF16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BG16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BH16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BK16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BM16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BN16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BO16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BQ16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BR16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BS16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BT16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BU16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BV16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BW16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BX16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BY16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BZ16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CA16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CB16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="CC16" s="2" t="s">
-        <v>101</v>
+      <c r="BD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="CA16" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB16" s="2">
+        <v>1</v>
+      </c>
+      <c r="CC16" s="2">
+        <v>1</v>
       </c>
       <c r="CD16" s="1" t="s">
         <v>101</v>
@@ -6086,8 +6113,8 @@
       <c r="C17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>101</v>
+      <c r="D17" s="2">
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>100</v>
@@ -6388,8 +6415,8 @@
       <c r="C18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>101</v>
+      <c r="D18" s="2">
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>100</v>
@@ -6690,35 +6717,35 @@
       <c r="C19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>101</v>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>100</v>
@@ -7019,8 +7046,8 @@
       <c r="L20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>101</v>
+      <c r="M20" s="2">
+        <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>100</v>
@@ -7321,8 +7348,8 @@
       <c r="L21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>101</v>
+      <c r="M21" s="2">
+        <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>100</v>
@@ -7623,8 +7650,8 @@
       <c r="L22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>101</v>
+      <c r="M22" s="2">
+        <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>100</v>
@@ -7892,41 +7919,41 @@
       <c r="A23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>101</v>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>100</v>
